--- a/customerUtilization.xlsx
+++ b/customerUtilization.xlsx
@@ -521,6 +521,57 @@
   </si>
   <si>
     <t xml:space="preserve">devfusion.numocity.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTJIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testreportcharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testcharge001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleOem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statiq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone1-3.3KW-Ch01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCPt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jio-bp-cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cp-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numo-dev-cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new-display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new-cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev-cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP00000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-audit-charge-station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCPttt</t>
   </si>
 </sst>
 </file>
@@ -877,10 +928,10 @@
         <v>1182</v>
       </c>
       <c r="B6" s="3">
-        <v>51320619.5</v>
+        <v>53236.91</v>
       </c>
       <c r="C6" s="6">
-        <v>1341387.5302303333</v>
+        <v>1151399.58</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
@@ -920,20 +971,12 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3">
-        <v>111</v>
-      </c>
-      <c r="B10" s="3">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
-        <v>607</v>
-      </c>
-      <c r="E10" s="9">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" t="s" s="10">
@@ -954,16 +997,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1003,146 +1046,126 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>24</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B16" s="0"/>
       <c r="C16" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B17" s="0"/>
       <c r="C17" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>24</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B18" s="0"/>
       <c r="C18" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B19" s="13"/>
       <c r="C19" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s" s="13">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B20" s="13"/>
       <c r="C20" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s" s="13">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D21" t="s" s="13">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B22" s="13"/>
       <c r="C22" t="s" s="13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s" s="13">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B23" s="13"/>
       <c r="C23" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s" s="13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B24" s="13"/>
       <c r="C24" t="s" s="13">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s" s="13">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" t="s" s="13">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B25" s="13"/>
       <c r="C25" t="s" s="13">
         <v>25</v>
       </c>
@@ -1153,11 +1176,9 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" t="s" s="13">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B26" s="13"/>
       <c r="C26" t="s" s="13">
         <v>25</v>
       </c>
@@ -1168,146 +1189,126 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" t="s" s="13">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B27" s="13"/>
       <c r="C27" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s" s="13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" t="s" s="13">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B28" s="13"/>
       <c r="C28" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s" s="13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" t="s" s="13">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B29" s="13"/>
       <c r="C29" t="s" s="13">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s" s="13">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" t="s" s="13">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B30" s="13"/>
       <c r="C30" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s" s="13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" t="s" s="13">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B31" s="13"/>
       <c r="C31" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D31" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" t="s" s="13">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B32" s="13"/>
       <c r="C32" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s" s="13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B33" s="13"/>
       <c r="C33" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s" s="13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" t="s" s="13">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B34" s="13"/>
       <c r="C34" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D34" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" t="s" s="13">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B35" s="13"/>
       <c r="C35" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D35" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" t="s" s="13">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B36" s="13"/>
       <c r="C36" t="s" s="13">
         <v>25</v>
       </c>
@@ -1318,56 +1319,48 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" t="s" s="13">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B37" s="13"/>
       <c r="C37" t="s" s="13">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s" s="13">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B38" s="13"/>
       <c r="C38" t="s" s="13">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s" s="13">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" t="s" s="13">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B39" s="13"/>
       <c r="C39" t="s" s="13">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s" s="13">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" t="s" s="13">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B40" s="13"/>
       <c r="C40" t="s" s="13">
         <v>25</v>
       </c>
@@ -1378,88 +1371,76 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" t="s" s="13">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B41" s="13"/>
       <c r="C41" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D41" t="s" s="13">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="B42" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B42" s="13"/>
       <c r="C42" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s" s="13">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" t="s" s="13">
-        <v>64</v>
-      </c>
-      <c r="B43" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B43" s="13"/>
       <c r="C43" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D43" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="B44" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B44" s="13"/>
       <c r="C44" t="s" s="13">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s" s="13">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="E44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" t="s" s="13">
-        <v>66</v>
-      </c>
-      <c r="B45" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B45" s="13"/>
       <c r="C45" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s" s="13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" t="s" s="13">
-        <v>67</v>
-      </c>
-      <c r="B46" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B46" s="13"/>
       <c r="C46" t="s" s="13">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s" s="13">
         <v>29</v>
@@ -1468,71 +1449,61 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B47" s="13"/>
       <c r="C47" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D47" t="s" s="13">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" t="s" s="13">
-        <v>69</v>
-      </c>
-      <c r="B48" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B48" s="13"/>
       <c r="C48" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s" s="13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" t="s" s="13">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B49" s="13"/>
       <c r="C49" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D49" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" t="s" s="13">
-        <v>71</v>
-      </c>
-      <c r="B50" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B50" s="13"/>
       <c r="C50" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D50" t="s" s="13">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" t="s" s="13">
-        <v>72</v>
-      </c>
-      <c r="B51" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B51" s="13"/>
       <c r="C51" t="s" s="13">
         <v>25</v>
       </c>
@@ -1543,103 +1514,89 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" t="s" s="13">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B52" s="13"/>
       <c r="C52" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s" s="13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" t="s" s="13">
-        <v>74</v>
-      </c>
-      <c r="B53" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B53" s="13"/>
       <c r="C53" t="s" s="13">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s" s="13">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" t="s" s="13">
-        <v>75</v>
-      </c>
-      <c r="B54" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B54" s="13"/>
       <c r="C54" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D54" t="s" s="13">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" t="s" s="13">
-        <v>76</v>
-      </c>
-      <c r="B55" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B55" s="13"/>
       <c r="C55" t="s" s="13">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s" s="13">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" t="s" s="13">
-        <v>79</v>
-      </c>
-      <c r="B56" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B56" s="13"/>
       <c r="C56" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D56" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" t="s" s="13">
-        <v>80</v>
-      </c>
-      <c r="B57" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B57" s="13"/>
       <c r="C57" t="s" s="13">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s" s="13">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" t="s" s="13">
-        <v>81</v>
-      </c>
-      <c r="B58" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B58" s="13"/>
       <c r="C58" t="s" s="13">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s" s="13">
         <v>29</v>
@@ -1648,56 +1605,48 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" t="s" s="13">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B59" s="13"/>
       <c r="C59" t="s" s="13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s" s="13">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" t="s" s="13">
-        <v>83</v>
-      </c>
-      <c r="B60" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B60" s="13"/>
       <c r="C60" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s" s="13">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" t="s" s="13">
-        <v>84</v>
-      </c>
-      <c r="B61" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B61" s="13"/>
       <c r="C61" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D61" t="s" s="13">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" t="s" s="13">
-        <v>85</v>
-      </c>
-      <c r="B62" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B62" s="13"/>
       <c r="C62" t="s" s="13">
         <v>25</v>
       </c>
@@ -1708,146 +1657,126 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" t="s" s="13">
-        <v>86</v>
-      </c>
-      <c r="B63" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B63" s="13"/>
       <c r="C63" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D63" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" t="s" s="13">
-        <v>87</v>
-      </c>
-      <c r="B64" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B64" s="13"/>
       <c r="C64" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D64" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" t="s" s="13">
-        <v>88</v>
-      </c>
-      <c r="B65" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B65" s="13"/>
       <c r="C65" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s" s="13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" t="s" s="13">
-        <v>89</v>
-      </c>
-      <c r="B66" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B66" s="13"/>
       <c r="C66" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s" s="13">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E66" s="13"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" t="s" s="13">
-        <v>90</v>
-      </c>
-      <c r="B67" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B67" s="13"/>
       <c r="C67" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D67" t="s" s="13">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="E67" s="13"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" t="s" s="13">
-        <v>91</v>
-      </c>
-      <c r="B68" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B68" s="13"/>
       <c r="C68" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s" s="13">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="E68" s="13"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" t="s" s="13">
-        <v>92</v>
-      </c>
-      <c r="B69" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B69" s="13"/>
       <c r="C69" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s" s="13">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E69" s="13"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" t="s" s="13">
-        <v>93</v>
-      </c>
-      <c r="B70" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B70" s="13"/>
       <c r="C70" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D70" t="s" s="13">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E70" s="13"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" t="s" s="13">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B71" s="13"/>
       <c r="C71" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D71" t="s" s="13">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E71" s="13"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" t="s" s="13">
-        <v>95</v>
-      </c>
-      <c r="B72" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B72" s="13"/>
       <c r="C72" t="s" s="13">
         <v>25</v>
       </c>
@@ -1858,26 +1787,22 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" t="s" s="13">
-        <v>96</v>
-      </c>
-      <c r="B73" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B73" s="13"/>
       <c r="C73" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s" s="13">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E73" s="13"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" t="s" s="13">
-        <v>97</v>
-      </c>
-      <c r="B74" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B74" s="13"/>
       <c r="C74" t="s" s="13">
         <v>25</v>
       </c>
@@ -1888,386 +1813,334 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" t="s" s="13">
-        <v>98</v>
-      </c>
-      <c r="B75" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B75" s="13"/>
       <c r="C75" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D75" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E75" s="13"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" t="s" s="13">
-        <v>99</v>
-      </c>
-      <c r="B76" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B76" s="13"/>
       <c r="C76" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D76" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" t="s" s="13">
-        <v>100</v>
-      </c>
-      <c r="B77" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B77" s="13"/>
       <c r="C77" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s" s="13">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="E77" s="13"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" t="s" s="13">
-        <v>101</v>
-      </c>
-      <c r="B78" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B78" s="13"/>
       <c r="C78" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D78" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E78" s="13"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" t="s" s="13">
-        <v>102</v>
-      </c>
-      <c r="B79" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B79" s="13"/>
       <c r="C79" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D79" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E79" s="13"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" t="s" s="13">
-        <v>103</v>
-      </c>
-      <c r="B80" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B80" s="13"/>
       <c r="C80" t="s" s="13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s" s="13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" t="s" s="13">
-        <v>104</v>
-      </c>
-      <c r="B81" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B81" s="13"/>
       <c r="C81" t="s" s="13">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s" s="13">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E81" s="13"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" t="s" s="13">
-        <v>105</v>
-      </c>
-      <c r="B82" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B82" s="13"/>
       <c r="C82" t="s" s="13">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s" s="13">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="E82" s="13"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" t="s" s="13">
-        <v>108</v>
-      </c>
-      <c r="B83" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B83" s="13"/>
       <c r="C83" t="s" s="13">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s" s="13">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E83" s="13"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" t="s" s="13">
-        <v>109</v>
-      </c>
-      <c r="B84" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B84" s="13"/>
       <c r="C84" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D84" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E84" s="13"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" t="s" s="13">
-        <v>110</v>
-      </c>
-      <c r="B85" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B85" s="13"/>
       <c r="C85" t="s" s="13">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s" s="13">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" t="s" s="13">
-        <v>111</v>
-      </c>
-      <c r="B86" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B86" s="13"/>
       <c r="C86" t="s" s="13">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s" s="13">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" t="s" s="13">
-        <v>113</v>
-      </c>
-      <c r="B87" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B87" s="13"/>
       <c r="C87" t="s" s="13">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s" s="13">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E87" s="13"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" t="s" s="13">
-        <v>114</v>
-      </c>
-      <c r="B88" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B88" s="13"/>
       <c r="C88" t="s" s="13">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s" s="13">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="E88" s="13"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" t="s" s="13">
-        <v>117</v>
-      </c>
-      <c r="B89" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B89" s="13"/>
       <c r="C89" t="s" s="13">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s" s="13">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="E89" s="13"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" t="s" s="13">
-        <v>118</v>
-      </c>
-      <c r="B90" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B90" s="13"/>
       <c r="C90" t="s" s="13">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s" s="13">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="E90" s="13"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" t="s" s="13">
-        <v>119</v>
-      </c>
-      <c r="B91" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B91" s="13"/>
       <c r="C91" t="s" s="13">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s" s="13">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E91" s="13"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" t="s" s="13">
-        <v>120</v>
-      </c>
-      <c r="B92" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B92" s="13"/>
       <c r="C92" t="s" s="13">
         <v>121</v>
       </c>
       <c r="D92" t="s" s="13">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E92" s="13"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" t="s" s="13">
-        <v>123</v>
-      </c>
-      <c r="B93" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B93" s="13"/>
       <c r="C93" t="s" s="13">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s" s="13">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="E93" s="13"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" t="s" s="13">
-        <v>125</v>
-      </c>
-      <c r="B94" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B94" s="13"/>
       <c r="C94" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D94" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E94" s="13"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" t="s" s="13">
-        <v>126</v>
-      </c>
-      <c r="B95" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B95" s="13"/>
       <c r="C95" t="s" s="13">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s" s="13">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="E95" s="13"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" t="s" s="13">
-        <v>129</v>
-      </c>
-      <c r="B96" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B96" s="13"/>
       <c r="C96" t="s" s="13">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s" s="13">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="E96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" t="s" s="13">
-        <v>132</v>
-      </c>
-      <c r="B97" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B97" s="13"/>
       <c r="C97" t="s" s="13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s" s="13">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" t="s" s="13">
-        <v>133</v>
-      </c>
-      <c r="B98" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B98" s="13"/>
       <c r="C98" t="s" s="13">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="D98" t="s" s="13">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" t="s" s="13">
-        <v>134</v>
-      </c>
-      <c r="B99" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B99" s="13"/>
       <c r="C99" t="s" s="13">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s" s="13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" t="s" s="13">
-        <v>135</v>
-      </c>
-      <c r="B100" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B100" s="13"/>
       <c r="C100" t="s" s="13">
         <v>25</v>
       </c>
@@ -2278,88 +2151,76 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" t="s" s="13">
-        <v>136</v>
-      </c>
-      <c r="B101" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B101" s="13"/>
       <c r="C101" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D101" t="s" s="13">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" t="s" s="13">
-        <v>137</v>
-      </c>
-      <c r="B102" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B102" s="13"/>
       <c r="C102" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D102" t="s" s="13">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" t="s" s="13">
-        <v>138</v>
-      </c>
-      <c r="B103" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B103" s="13"/>
       <c r="C103" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D103" t="s" s="13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" t="s" s="13">
-        <v>139</v>
-      </c>
-      <c r="B104" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B104" s="13"/>
       <c r="C104" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D104" t="s" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" t="s" s="13">
-        <v>140</v>
-      </c>
-      <c r="B105" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B105" s="13"/>
       <c r="C105" t="s" s="13">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D105" t="s" s="13">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" t="s" s="13">
-        <v>130</v>
-      </c>
-      <c r="B106" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B106" s="13"/>
       <c r="C106" t="s" s="13">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s" s="13">
         <v>45</v>
@@ -2368,86 +2229,74 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" t="s" s="13">
-        <v>141</v>
-      </c>
-      <c r="B107" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B107" s="13"/>
       <c r="C107" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D107" t="s" s="13">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" t="s" s="13">
-        <v>142</v>
-      </c>
-      <c r="B108" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B108" s="13"/>
       <c r="C108" t="s" s="13">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s" s="13">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="E108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" t="s" s="13">
-        <v>143</v>
-      </c>
-      <c r="B109" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B109" s="13"/>
       <c r="C109" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D109" t="s" s="13">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" t="s" s="13">
-        <v>144</v>
-      </c>
-      <c r="B110" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B110" s="13"/>
       <c r="C110" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s" s="13">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E110" s="13"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" t="s" s="13">
-        <v>145</v>
-      </c>
-      <c r="B111" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B111" s="13"/>
       <c r="C111" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D111" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E111" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" t="s" s="13">
-        <v>146</v>
-      </c>
-      <c r="B112" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B112" s="13"/>
       <c r="C112" t="s" s="13">
         <v>25</v>
       </c>
@@ -2458,181 +2307,157 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" t="s" s="13">
-        <v>147</v>
-      </c>
-      <c r="B113" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B113" s="13"/>
       <c r="C113" t="s" s="13">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s" s="13">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" t="s" s="13">
-        <v>148</v>
-      </c>
-      <c r="B114" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B114" s="13"/>
       <c r="C114" t="s" s="13">
         <v>25</v>
       </c>
       <c r="D114" t="s" s="13">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E114" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" t="s" s="13">
-        <v>149</v>
-      </c>
-      <c r="B115" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B115" s="13"/>
       <c r="C115" t="s" s="13">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D115" t="s" s="13">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E115" s="13"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" t="s" s="13">
-        <v>150</v>
-      </c>
-      <c r="B116" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B116" s="13"/>
       <c r="C116" t="s" s="13">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s" s="13">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E116" s="13"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" t="s" s="13">
-        <v>152</v>
-      </c>
-      <c r="B117" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B117" s="13"/>
       <c r="C117" t="s" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s" s="13">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="E117" s="13"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" t="s" s="13">
-        <v>154</v>
-      </c>
-      <c r="B118" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B118" s="13"/>
       <c r="C118" t="s" s="13">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="D118" t="s" s="13">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E118" s="13"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" t="s" s="13">
-        <v>155</v>
-      </c>
-      <c r="B119" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B119" s="13"/>
       <c r="C119" t="s" s="13">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D119" t="s" s="13">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E119" s="13"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" t="s" s="13">
-        <v>156</v>
-      </c>
-      <c r="B120" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B120" s="13"/>
       <c r="C120" t="s" s="13">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D120" t="s" s="13">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E120" s="13"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" t="s" s="13">
-        <v>157</v>
-      </c>
-      <c r="B121" t="s" s="13">
-        <v>24</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B121" s="13"/>
       <c r="C121" t="s" s="13">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="D121" t="s" s="13">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E121" s="13"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" t="s" s="13">
-        <v>158</v>
-      </c>
-      <c r="B122" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B122" s="13"/>
       <c r="C122" t="s" s="13">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D122" t="s" s="13">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="E122" s="13"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" t="s" s="13">
-        <v>161</v>
-      </c>
-      <c r="B123" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B123" s="13"/>
       <c r="C123" t="s" s="13">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D123" t="s" s="13">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E123" s="13"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" t="s" s="13">
-        <v>163</v>
-      </c>
-      <c r="B124" t="s" s="13">
-        <v>34</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B124" s="13"/>
       <c r="C124" t="s" s="13">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D124" t="s" s="13">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="E124" s="13"/>
     </row>
